--- a/biology/Médecine/Spica_(bandage)/Spica_(bandage).xlsx
+++ b/biology/Médecine/Spica_(bandage)/Spica_(bandage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un spica est un type d'attelle ou de bandage utilisé pour immobiliser une articulation, en particulier au niveau du pouce et/ou du poignet, tout en permettant aux autres doigts de bouger librement. Il est utilisé pour contribuer à guérir les blessures du pouce (instabilité ligamentaire, entorse, foulure, arthrose, syndrome de Quervain, fracture de l'os scaphoïde, problème post-opératoire...).
-Il existe en outre des spicas du bras, de la tête, de l'aisselle (spicas doubles)[1].
+Il existe en outre des spicas du bras, de la tête, de l'aisselle (spicas doubles).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce terme, attesté en 1555, vient du mot latin signifiant « pointe ou épi » par référence aux épillets des graminées le long de leur axe[2] que rappelle le dessin formé par l’enroulement d'un bandage croisé à la racine d'un membre blessé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce terme, attesté en 1555, vient du mot latin signifiant « pointe ou épi » par référence aux épillets des graminées le long de leur axe que rappelle le dessin formé par l’enroulement d'un bandage croisé à la racine d'un membre blessé.
 </t>
         </is>
       </c>
